--- a/contentexcel/full_content_excel.xlsx
+++ b/contentexcel/full_content_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\services_PSD\rbt system excel templates\rbt_system_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rbt_system_php7\contentexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AZ$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -101,31 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mohamed mahmoud:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-2020-10-27</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Content Owner</t>
   </si>
@@ -192,62 +171,158 @@
     <t>Contract Code</t>
   </si>
   <si>
-    <t>Artist Name en</t>
-  </si>
-  <si>
-    <t>Artist Name ar</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Content Title ar</t>
-  </si>
-  <si>
-    <t>Content Title en</t>
-  </si>
-  <si>
     <t>Album</t>
   </si>
   <si>
     <t>Single</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>Rbt Name_en</t>
-  </si>
-  <si>
-    <t>Rbt Name_ar</t>
-  </si>
-  <si>
     <t>Social Media Code</t>
   </si>
   <si>
-    <t>operator lists</t>
-  </si>
-  <si>
-    <t>content path</t>
-  </si>
-  <si>
-    <t>content Start Date</t>
-  </si>
-  <si>
-    <t>content Expire Date</t>
-  </si>
-  <si>
-    <t>rbt Start Date</t>
-  </si>
-  <si>
-    <t>rbt Expire Date</t>
+    <t>Artist Name En</t>
+  </si>
+  <si>
+    <t>Artist Name Ar</t>
+  </si>
+  <si>
+    <t>Content Title En</t>
+  </si>
+  <si>
+    <t>Content Title Ar</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Content Path</t>
+  </si>
+  <si>
+    <t>Content Start Date</t>
+  </si>
+  <si>
+    <t>Content Expire Date</t>
+  </si>
+  <si>
+    <t>Rbt Name En</t>
+  </si>
+  <si>
+    <t>Rbt Name Ar</t>
+  </si>
+  <si>
+    <t>RBT Start Date</t>
+  </si>
+  <si>
+    <t>RBT Expire Date</t>
+  </si>
+  <si>
+    <t>Aggregator</t>
+  </si>
+  <si>
+    <t>Operator 1 / Libyana Libya</t>
+  </si>
+  <si>
+    <t>Operator 2 / Orange Jordan</t>
+  </si>
+  <si>
+    <t>Operator 3 / Asiacell Iraq</t>
+  </si>
+  <si>
+    <t>Operator 4 / Oman Mobile</t>
+  </si>
+  <si>
+    <t>Operator 5 / Jawal Ps</t>
+  </si>
+  <si>
+    <t>Operator 6 / Ooredoo Tunis</t>
+  </si>
+  <si>
+    <t>Operator 7 / Telecome tunis</t>
+  </si>
+  <si>
+    <t>Operator 8 / Orange Tunis</t>
+  </si>
+  <si>
+    <t>Operator 9 / Orange Moroco</t>
+  </si>
+  <si>
+    <t>Operator 10 / Telecome Moroco</t>
+  </si>
+  <si>
+    <t>Operator 11 / Inwi Moroco</t>
+  </si>
+  <si>
+    <t>Operator 12 / Zain Iraq</t>
+  </si>
+  <si>
+    <t>Operator 13 / Watanya Ps</t>
+  </si>
+  <si>
+    <t>Operator 14 / Lebara Ksa</t>
+  </si>
+  <si>
+    <t>Operator 15 / Stc Ksa</t>
+  </si>
+  <si>
+    <t>Operator 16 / Ooredoo Oman</t>
+  </si>
+  <si>
+    <t>Operator 17 / Stc Kuw</t>
+  </si>
+  <si>
+    <t>Operator18 / Vodafone Eg</t>
+  </si>
+  <si>
+    <t>Operator 19 / Zain Bahrain</t>
+  </si>
+  <si>
+    <t>Operator 20 / Zain Ksa</t>
+  </si>
+  <si>
+    <t>Operator 21 / Etisalat Eg</t>
+  </si>
+  <si>
+    <t>Operator 22 / Zain Kuw</t>
+  </si>
+  <si>
+    <t>Operator 23 / Du UAE</t>
+  </si>
+  <si>
+    <t>Operator 24 / Etisalat UAE</t>
+  </si>
+  <si>
+    <t>Operator 25 / Mobily Ksa</t>
+  </si>
+  <si>
+    <t>Operator 26 / Viva Bahrain</t>
+  </si>
+  <si>
+    <t>Operator 27 / umniah jordan</t>
+  </si>
+  <si>
+    <t>Operator 28 / Ooredoo Qatar</t>
+  </si>
+  <si>
+    <t>Operator 29 / Ooredoo Kuw</t>
+  </si>
+  <si>
+    <t>Operator 30 / Ooredoo Kuw</t>
+  </si>
+  <si>
+    <t>Operator 31 / oreedo palastine</t>
+  </si>
+  <si>
+    <t>Operator 32 / Orange Eg</t>
+  </si>
+  <si>
+    <t>IVAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,19 +358,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -339,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -348,6 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -629,44 +692,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="5" width="54.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
     <col min="7" max="7" width="31.5703125" customWidth="1"/>
-    <col min="8" max="9" width="36.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="14" width="21.28515625" customWidth="1"/>
-    <col min="15" max="15" width="28.7109375" customWidth="1"/>
-    <col min="16" max="17" width="54.140625" customWidth="1"/>
-    <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="15" max="16" width="54.140625" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="26.28515625" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+    <col min="23" max="23" width="24.85546875" customWidth="1"/>
+    <col min="24" max="24" width="26.5703125" customWidth="1"/>
+    <col min="25" max="25" width="23" customWidth="1"/>
+    <col min="26" max="26" width="27.42578125" customWidth="1"/>
+    <col min="27" max="27" width="26.7109375" customWidth="1"/>
+    <col min="28" max="28" width="24" customWidth="1"/>
+    <col min="29" max="29" width="27.140625" customWidth="1"/>
+    <col min="30" max="30" width="30.28515625" customWidth="1"/>
+    <col min="31" max="31" width="26" customWidth="1"/>
+    <col min="32" max="32" width="27" customWidth="1"/>
+    <col min="33" max="33" width="27.28515625" customWidth="1"/>
+    <col min="34" max="34" width="27.42578125" customWidth="1"/>
+    <col min="35" max="35" width="27.5703125" customWidth="1"/>
+    <col min="36" max="37" width="27.42578125" customWidth="1"/>
+    <col min="38" max="38" width="27.85546875" customWidth="1"/>
+    <col min="39" max="39" width="27.7109375" customWidth="1"/>
+    <col min="40" max="40" width="27.85546875" customWidth="1"/>
+    <col min="41" max="41" width="27.28515625" customWidth="1"/>
+    <col min="42" max="42" width="27.5703125" customWidth="1"/>
+    <col min="43" max="44" width="28" customWidth="1"/>
+    <col min="45" max="45" width="27.85546875" customWidth="1"/>
+    <col min="46" max="46" width="28.140625" customWidth="1"/>
+    <col min="47" max="48" width="28" customWidth="1"/>
+    <col min="49" max="49" width="27.7109375" customWidth="1"/>
+    <col min="50" max="50" width="27.5703125" customWidth="1"/>
+    <col min="51" max="51" width="27.28515625" customWidth="1"/>
+    <col min="52" max="52" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -681,50 +779,148 @@
         <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>15</v>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:52" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
+  <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H420:I1048576">
       <formula1>"Occasion1, Occasion2, Occasion3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U79:U1048576">
-      <formula1>"Occassion1, Occassion2, Occassion3"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576">
+      <formula1>"Arpu, DIGI ZONE, IVAS, ON Mobil"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contentexcel/full_content_excel.xlsx
+++ b/contentexcel/full_content_excel.xlsx
@@ -270,9 +270,6 @@
     <t>Operator 17 / Stc Kuw</t>
   </si>
   <si>
-    <t>Operator18 / Vodafone Eg</t>
-  </si>
-  <si>
     <t>Operator 19 / Zain Bahrain</t>
   </si>
   <si>
@@ -316,6 +313,9 @@
   </si>
   <si>
     <t>IVAS</t>
+  </si>
+  <si>
+    <t>Operator 18 / Vodafone Eg</t>
   </si>
 </sst>
 </file>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,54 +863,54 @@
         <v>36</v>
       </c>
       <c r="AL1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="T2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/contentexcel/full_content_excel.xlsx
+++ b/contentexcel/full_content_excel.xlsx
@@ -32,7 +32,7 @@
     <author>mohamed mahmoud</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,31 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>mohamed mahmoud:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Provider</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,9 +135,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
-    <t>Content Owner</t>
-  </si>
-  <si>
     <t>Occasion</t>
   </si>
   <si>
@@ -316,6 +289,9 @@
   </si>
   <si>
     <t>Operator 18 / Vodafone Eg</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
 </sst>
 </file>
@@ -694,26 +670,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="51" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="10" max="10" width="34" customWidth="1"/>
+    <col min="11" max="11" width="33.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" customWidth="1"/>
+    <col min="14" max="14" width="27.85546875" customWidth="1"/>
     <col min="15" max="16" width="54.140625" customWidth="1"/>
     <col min="17" max="17" width="22.5703125" customWidth="1"/>
     <col min="18" max="18" width="19.28515625" customWidth="1"/>
@@ -752,175 +728,178 @@
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="T2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H420:I1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576">
+      <formula1>"Arpu, DIGI ZONE, IVAS, ON Mobil"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J420:K1048576">
       <formula1>"Occasion1, Occasion2, Occasion3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576">
-      <formula1>"Arpu, DIGI ZONE, IVAS, ON Mobil"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"Male, Female"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contentexcel/full_content_excel.xlsx
+++ b/contentexcel/full_content_excel.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AZ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BC$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
     <author>mohamed mahmoud</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Occasion</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>Remax</t>
+  </si>
+  <si>
+    <t>Occasion 2</t>
+  </si>
+  <si>
+    <t>Occasion 3</t>
   </si>
 </sst>
 </file>
@@ -668,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -682,51 +691,51 @@
     <col min="4" max="4" width="42.42578125" customWidth="1"/>
     <col min="5" max="5" width="51" customWidth="1"/>
     <col min="6" max="6" width="49.42578125" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
-    <col min="10" max="10" width="34" customWidth="1"/>
-    <col min="11" max="11" width="33.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" customWidth="1"/>
-    <col min="14" max="14" width="27.85546875" customWidth="1"/>
-    <col min="15" max="16" width="54.140625" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" customWidth="1"/>
-    <col min="21" max="21" width="26.28515625" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" customWidth="1"/>
-    <col min="23" max="23" width="24.85546875" customWidth="1"/>
-    <col min="24" max="24" width="26.5703125" customWidth="1"/>
-    <col min="25" max="25" width="23" customWidth="1"/>
-    <col min="26" max="26" width="27.42578125" customWidth="1"/>
-    <col min="27" max="27" width="26.7109375" customWidth="1"/>
-    <col min="28" max="28" width="24" customWidth="1"/>
-    <col min="29" max="29" width="27.140625" customWidth="1"/>
-    <col min="30" max="30" width="30.28515625" customWidth="1"/>
-    <col min="31" max="31" width="26" customWidth="1"/>
-    <col min="32" max="32" width="27" customWidth="1"/>
-    <col min="33" max="33" width="27.28515625" customWidth="1"/>
-    <col min="34" max="34" width="27.42578125" customWidth="1"/>
-    <col min="35" max="35" width="27.5703125" customWidth="1"/>
-    <col min="36" max="37" width="27.42578125" customWidth="1"/>
-    <col min="38" max="38" width="27.85546875" customWidth="1"/>
-    <col min="39" max="39" width="27.7109375" customWidth="1"/>
-    <col min="40" max="40" width="27.85546875" customWidth="1"/>
-    <col min="41" max="41" width="27.28515625" customWidth="1"/>
-    <col min="42" max="42" width="27.5703125" customWidth="1"/>
-    <col min="43" max="44" width="28" customWidth="1"/>
-    <col min="45" max="45" width="27.85546875" customWidth="1"/>
-    <col min="46" max="46" width="28.140625" customWidth="1"/>
-    <col min="47" max="48" width="28" customWidth="1"/>
-    <col min="49" max="49" width="27.7109375" customWidth="1"/>
-    <col min="50" max="50" width="27.5703125" customWidth="1"/>
-    <col min="51" max="51" width="27.28515625" customWidth="1"/>
-    <col min="52" max="52" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="9" width="29.140625" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" customWidth="1"/>
+    <col min="12" max="12" width="34" customWidth="1"/>
+    <col min="13" max="15" width="33.7109375" customWidth="1"/>
+    <col min="16" max="16" width="27.5703125" customWidth="1"/>
+    <col min="17" max="17" width="27.85546875" customWidth="1"/>
+    <col min="18" max="19" width="54.140625" customWidth="1"/>
+    <col min="20" max="20" width="22.5703125" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
+    <col min="24" max="24" width="26.28515625" customWidth="1"/>
+    <col min="25" max="25" width="26.7109375" customWidth="1"/>
+    <col min="26" max="26" width="24.85546875" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" customWidth="1"/>
+    <col min="28" max="28" width="23" customWidth="1"/>
+    <col min="29" max="29" width="27.42578125" customWidth="1"/>
+    <col min="30" max="30" width="26.7109375" customWidth="1"/>
+    <col min="31" max="31" width="24" customWidth="1"/>
+    <col min="32" max="32" width="27.140625" customWidth="1"/>
+    <col min="33" max="33" width="30.28515625" customWidth="1"/>
+    <col min="34" max="34" width="26" customWidth="1"/>
+    <col min="35" max="35" width="27" customWidth="1"/>
+    <col min="36" max="36" width="27.28515625" customWidth="1"/>
+    <col min="37" max="37" width="27.42578125" customWidth="1"/>
+    <col min="38" max="38" width="27.5703125" customWidth="1"/>
+    <col min="39" max="40" width="27.42578125" customWidth="1"/>
+    <col min="41" max="41" width="27.85546875" customWidth="1"/>
+    <col min="42" max="42" width="27.7109375" customWidth="1"/>
+    <col min="43" max="43" width="27.85546875" customWidth="1"/>
+    <col min="44" max="44" width="27.28515625" customWidth="1"/>
+    <col min="45" max="45" width="27.5703125" customWidth="1"/>
+    <col min="46" max="47" width="28" customWidth="1"/>
+    <col min="48" max="48" width="27.85546875" customWidth="1"/>
+    <col min="49" max="49" width="28.140625" customWidth="1"/>
+    <col min="50" max="51" width="28" customWidth="1"/>
+    <col min="52" max="52" width="27.7109375" customWidth="1"/>
+    <col min="53" max="53" width="27.5703125" customWidth="1"/>
+    <col min="54" max="54" width="27.28515625" customWidth="1"/>
+    <col min="55" max="55" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -746,160 +755,172 @@
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="T2" t="s">
+    <row r="2" spans="1:55" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
       <formula1>"Arpu, DIGI ZONE, IVAS, ON Mobil"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J420:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L420:O1048576">
       <formula1>"Occasion1, Occasion2, Occasion3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Male, Female"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I2:I1048576">
+      <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contentexcel/full_content_excel.xlsx
+++ b/contentexcel/full_content_excel.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BC$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AY$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,84 +56,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>mohamed mahmoud:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-2020-10-22</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>mohamed mahmoud:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-2020-10-22</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>mohamed mahmoud:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-2020-10-22</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Occasion</t>
   </si>
@@ -171,22 +99,10 @@
     <t>Content Path</t>
   </si>
   <si>
-    <t>Content Start Date</t>
-  </si>
-  <si>
-    <t>Content Expire Date</t>
-  </si>
-  <si>
     <t>Rbt Name En</t>
   </si>
   <si>
     <t>Rbt Name Ar</t>
-  </si>
-  <si>
-    <t>RBT Start Date</t>
-  </si>
-  <si>
-    <t>RBT Expire Date</t>
   </si>
   <si>
     <t>Aggregator</t>
@@ -386,13 +302,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
@@ -677,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -697,45 +610,41 @@
     <col min="11" max="11" width="33.85546875" customWidth="1"/>
     <col min="12" max="12" width="34" customWidth="1"/>
     <col min="13" max="15" width="33.7109375" customWidth="1"/>
-    <col min="16" max="16" width="27.5703125" customWidth="1"/>
-    <col min="17" max="17" width="27.85546875" customWidth="1"/>
-    <col min="18" max="19" width="54.140625" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" customWidth="1"/>
-    <col min="24" max="24" width="26.28515625" customWidth="1"/>
-    <col min="25" max="25" width="26.7109375" customWidth="1"/>
-    <col min="26" max="26" width="24.85546875" customWidth="1"/>
-    <col min="27" max="27" width="26.5703125" customWidth="1"/>
-    <col min="28" max="28" width="23" customWidth="1"/>
-    <col min="29" max="29" width="27.42578125" customWidth="1"/>
-    <col min="30" max="30" width="26.7109375" customWidth="1"/>
-    <col min="31" max="31" width="24" customWidth="1"/>
-    <col min="32" max="32" width="27.140625" customWidth="1"/>
-    <col min="33" max="33" width="30.28515625" customWidth="1"/>
-    <col min="34" max="34" width="26" customWidth="1"/>
-    <col min="35" max="35" width="27" customWidth="1"/>
-    <col min="36" max="36" width="27.28515625" customWidth="1"/>
-    <col min="37" max="37" width="27.42578125" customWidth="1"/>
-    <col min="38" max="38" width="27.5703125" customWidth="1"/>
-    <col min="39" max="40" width="27.42578125" customWidth="1"/>
-    <col min="41" max="41" width="27.85546875" customWidth="1"/>
-    <col min="42" max="42" width="27.7109375" customWidth="1"/>
-    <col min="43" max="43" width="27.85546875" customWidth="1"/>
-    <col min="44" max="44" width="27.28515625" customWidth="1"/>
-    <col min="45" max="45" width="27.5703125" customWidth="1"/>
+    <col min="16" max="17" width="54.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="26.28515625" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" customWidth="1"/>
+    <col min="24" max="24" width="23" customWidth="1"/>
+    <col min="25" max="25" width="27.42578125" customWidth="1"/>
+    <col min="26" max="26" width="26.7109375" customWidth="1"/>
+    <col min="27" max="27" width="24" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" customWidth="1"/>
+    <col min="29" max="29" width="30.28515625" customWidth="1"/>
+    <col min="30" max="30" width="26" customWidth="1"/>
+    <col min="31" max="31" width="27" customWidth="1"/>
+    <col min="32" max="32" width="27.28515625" customWidth="1"/>
+    <col min="33" max="33" width="27.42578125" customWidth="1"/>
+    <col min="34" max="34" width="27.5703125" customWidth="1"/>
+    <col min="35" max="36" width="27.42578125" customWidth="1"/>
+    <col min="37" max="37" width="27.85546875" customWidth="1"/>
+    <col min="38" max="38" width="27.7109375" customWidth="1"/>
+    <col min="39" max="39" width="27.85546875" customWidth="1"/>
+    <col min="40" max="40" width="27.28515625" customWidth="1"/>
+    <col min="41" max="41" width="27.5703125" customWidth="1"/>
+    <col min="42" max="43" width="28" customWidth="1"/>
+    <col min="44" max="44" width="27.85546875" customWidth="1"/>
+    <col min="45" max="45" width="28.140625" customWidth="1"/>
     <col min="46" max="47" width="28" customWidth="1"/>
-    <col min="48" max="48" width="27.85546875" customWidth="1"/>
-    <col min="49" max="49" width="28.140625" customWidth="1"/>
-    <col min="50" max="51" width="28" customWidth="1"/>
-    <col min="52" max="52" width="27.7109375" customWidth="1"/>
-    <col min="53" max="53" width="27.5703125" customWidth="1"/>
-    <col min="54" max="54" width="27.28515625" customWidth="1"/>
-    <col min="55" max="55" width="27.85546875" customWidth="1"/>
+    <col min="48" max="48" width="27.7109375" customWidth="1"/>
+    <col min="49" max="49" width="27.5703125" customWidth="1"/>
+    <col min="50" max="50" width="27.28515625" customWidth="1"/>
+    <col min="51" max="51" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -746,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -761,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -776,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>12</v>
@@ -788,129 +697,117 @@
         <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:51" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
         <v>46</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="W2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576">
       <formula1>"Arpu, DIGI ZONE, IVAS, ON Mobil"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L420:O1048576">
